--- a/emotion_record_statistics/emotion_record.xlsx
+++ b/emotion_record_statistics/emotion_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tools-programs\emotion_record_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0591DCC6-8818-4A74-8F71-81B5C91178E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D532ADFD-4275-44B1-BAB2-48AB22D71A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C852AB77-5F89-44F3-A590-1A1628580EA8}"/>
   </bookViews>
@@ -472,7 +472,7 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -507,10 +507,17 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="12" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="14" borderId="1" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,20 +544,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="14" borderId="1" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="16" borderId="1" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -884,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE928E04-3ADE-41D5-976E-20DAE36D2B1F}">
   <dimension ref="A1:BD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="21.6" customHeight="1"/>
@@ -895,12 +898,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="6">
         <v>0.29166666666666669</v>
       </c>
@@ -1001,12 +1004,12 @@
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A2" s="34">
+      <c r="A2" s="35">
         <v>43937</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -1041,15 +1044,15 @@
       <c r="AJ2" s="32"/>
     </row>
     <row r="3" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A3" s="48">
+      <c r="A3" s="50">
         <v>43938</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="27"/>
       <c r="F3" s="32"/>
-      <c r="G3" s="45"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="28"/>
       <c r="I3" s="32"/>
       <c r="J3" s="27"/>
@@ -1060,7 +1063,7 @@
       <c r="O3" s="30"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="33"/>
-      <c r="R3" s="45"/>
+      <c r="R3" s="34"/>
       <c r="S3" s="27"/>
       <c r="T3" s="32"/>
       <c r="U3" s="32"/>
@@ -1068,158 +1071,158 @@
       <c r="W3" s="26"/>
       <c r="X3" s="32"/>
       <c r="Y3" s="32"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A4" s="34">
+      <c r="A4" s="35">
         <v>43939</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="30"/>
     </row>
     <row r="5" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A5" s="34">
+      <c r="A5" s="35">
         <v>43940</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AQ5" s="36" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="30"/>
+      <c r="AQ5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="38"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="40"/>
+      <c r="AV5" s="40"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="40"/>
+      <c r="BB5" s="40"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="41"/>
     </row>
     <row r="6" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A6" s="34">
+      <c r="A6" s="35">
         <v>43941</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AL6" s="42" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="30"/>
+      <c r="AL6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="42"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
       <c r="AQ6" s="19"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
@@ -1236,49 +1239,49 @@
       <c r="BD6" s="3"/>
     </row>
     <row r="7" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A7" s="34">
+      <c r="A7" s="35">
         <v>43942</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AL7" s="43" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="30"/>
+      <c r="AL7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
       <c r="AQ7" s="20"/>
       <c r="AR7" s="16" t="s">
         <v>0</v>
@@ -1298,47 +1301,47 @@
       <c r="BD7" s="3"/>
     </row>
     <row r="8" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A8" s="34">
+      <c r="A8" s="35">
         <v>43943</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="30"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
       <c r="AQ8" s="19"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
@@ -1357,47 +1360,47 @@
       <c r="BD8" s="3"/>
     </row>
     <row r="9" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A9" s="34">
+      <c r="A9" s="35">
         <v>43944</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="43"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="30"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="11"/>
       <c r="AR9" s="16" t="s">
@@ -1421,47 +1424,47 @@
       <c r="BD9" s="3"/>
     </row>
     <row r="10" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A10" s="34">
+      <c r="A10" s="35">
         <v>43945</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="43"/>
-      <c r="AN10" s="43"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="30"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="12"/>
       <c r="AR10" s="16" t="s">
@@ -1487,47 +1490,47 @@
       <c r="BD10" s="3"/>
     </row>
     <row r="11" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A11" s="34">
+      <c r="A11" s="35">
         <v>43946</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="43"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="30"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
       <c r="AP11" s="3"/>
       <c r="AQ11" s="13"/>
       <c r="AR11" s="16" t="s">
@@ -1551,47 +1554,47 @@
       <c r="BD11" s="3"/>
     </row>
     <row r="12" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A12" s="34">
+      <c r="A12" s="35">
         <v>43947</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="43"/>
-      <c r="AN12" s="43"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="30"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="14"/>
       <c r="AR12" s="16" t="s">
@@ -1613,47 +1616,47 @@
       <c r="BD12" s="3"/>
     </row>
     <row r="13" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A13" s="34">
+      <c r="A13" s="35">
         <v>43948</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AL13" s="43"/>
-      <c r="AM13" s="43"/>
-      <c r="AN13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="30"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
@@ -1671,47 +1674,47 @@
       <c r="BD13" s="3"/>
     </row>
     <row r="14" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A14" s="34">
+      <c r="A14" s="35">
         <v>43949</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AL14" s="43"/>
-      <c r="AM14" s="43"/>
-      <c r="AN14" s="43"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="30"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="46"/>
       <c r="AP14" s="3"/>
       <c r="AY14" s="3"/>
       <c r="AZ14" s="19"/>
@@ -1721,44 +1724,44 @@
       <c r="BD14" s="3"/>
     </row>
     <row r="15" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A15" s="34">
+      <c r="A15" s="35">
         <v>43950</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="30"/>
       <c r="AP15" s="3"/>
       <c r="AY15" s="3"/>
       <c r="AZ15" s="19"/>
@@ -1768,60 +1771,60 @@
       <c r="BD15" s="3"/>
     </row>
     <row r="16" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A16" s="34">
+      <c r="A16" s="35">
         <v>43951</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="30"/>
       <c r="AP16" s="3"/>
-      <c r="AQ16" s="39" t="s">
+      <c r="AQ16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="40"/>
-      <c r="AS16" s="40"/>
-      <c r="AT16" s="40" t="s">
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="AU16" s="40"/>
-      <c r="AV16" s="40"/>
-      <c r="AW16" s="40" t="s">
+      <c r="AU16" s="43"/>
+      <c r="AV16" s="43"/>
+      <c r="AW16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AX16" s="40"/>
-      <c r="AY16" s="41"/>
+      <c r="AX16" s="43"/>
+      <c r="AY16" s="44"/>
       <c r="AZ16" s="21"/>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
@@ -1829,452 +1832,452 @@
       <c r="BD16" s="5"/>
     </row>
     <row r="17" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A17" s="46">
+      <c r="A17" s="37">
         <v>43952</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="30"/>
     </row>
     <row r="18" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A18" s="34">
+      <c r="A18" s="35">
         <v>43953</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="30"/>
     </row>
     <row r="19" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A19" s="34">
+      <c r="A19" s="35">
         <v>43954</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="30"/>
     </row>
     <row r="20" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A20" s="34">
+      <c r="A20" s="35">
         <v>43955</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="30"/>
     </row>
     <row r="21" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A21" s="34">
+      <c r="A21" s="35">
         <v>43956</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="30"/>
     </row>
     <row r="22" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A22" s="34">
+      <c r="A22" s="35">
         <v>43957</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="30"/>
     </row>
     <row r="23" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A23" s="34">
+      <c r="A23" s="35">
         <v>43958</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="30"/>
     </row>
     <row r="24" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A24" s="34">
+      <c r="A24" s="35">
         <v>43959</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="30"/>
     </row>
     <row r="25" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A25" s="34">
+      <c r="A25" s="35">
         <v>43960</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="30"/>
     </row>
     <row r="26" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A26" s="34">
+      <c r="A26" s="35">
         <v>43961</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="30"/>
     </row>
     <row r="27" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A27" s="34">
+      <c r="A27" s="47">
         <v>43962</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="30"/>
     </row>
     <row r="28" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A28" s="34">
+      <c r="A28" s="35">
         <v>43963</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -2309,12 +2312,12 @@
       <c r="AJ28" s="7"/>
     </row>
     <row r="29" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A29" s="34">
+      <c r="A29" s="35">
         <v>43964</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -2349,12 +2352,12 @@
       <c r="AJ29" s="7"/>
     </row>
     <row r="30" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A30" s="34">
+      <c r="A30" s="35">
         <v>43965</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -2389,12 +2392,12 @@
       <c r="AJ30" s="7"/>
     </row>
     <row r="31" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A31" s="34">
+      <c r="A31" s="35">
         <v>43966</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -2429,12 +2432,12 @@
       <c r="AJ31" s="7"/>
     </row>
     <row r="32" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A32" s="34">
+      <c r="A32" s="35">
         <v>43967</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2469,12 +2472,12 @@
       <c r="AJ32" s="7"/>
     </row>
     <row r="33" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A33" s="34">
+      <c r="A33" s="35">
         <v>43968</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -2509,12 +2512,12 @@
       <c r="AJ33" s="7"/>
     </row>
     <row r="34" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A34" s="34">
+      <c r="A34" s="35">
         <v>43969</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -2549,12 +2552,12 @@
       <c r="AJ34" s="7"/>
     </row>
     <row r="35" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A35" s="34">
+      <c r="A35" s="35">
         <v>43970</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -2589,12 +2592,12 @@
       <c r="AJ35" s="7"/>
     </row>
     <row r="36" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A36" s="34">
+      <c r="A36" s="35">
         <v>43971</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -2629,12 +2632,12 @@
       <c r="AJ36" s="7"/>
     </row>
     <row r="37" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A37" s="34">
+      <c r="A37" s="35">
         <v>43972</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2669,12 +2672,12 @@
       <c r="AJ37" s="7"/>
     </row>
     <row r="38" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A38" s="34">
+      <c r="A38" s="35">
         <v>43973</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -2709,12 +2712,12 @@
       <c r="AJ38" s="7"/>
     </row>
     <row r="39" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A39" s="34">
+      <c r="A39" s="35">
         <v>43974</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -2749,12 +2752,12 @@
       <c r="AJ39" s="7"/>
     </row>
     <row r="40" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A40" s="34">
+      <c r="A40" s="35">
         <v>43975</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -2789,12 +2792,12 @@
       <c r="AJ40" s="7"/>
     </row>
     <row r="41" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A41" s="34">
+      <c r="A41" s="35">
         <v>43976</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -2829,12 +2832,12 @@
       <c r="AJ41" s="7"/>
     </row>
     <row r="42" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A42" s="34">
+      <c r="A42" s="35">
         <v>43977</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -2869,12 +2872,12 @@
       <c r="AJ42" s="7"/>
     </row>
     <row r="43" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A43" s="34">
+      <c r="A43" s="35">
         <v>43978</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -2909,12 +2912,12 @@
       <c r="AJ43" s="7"/>
     </row>
     <row r="44" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A44" s="34">
+      <c r="A44" s="35">
         <v>43979</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -2949,12 +2952,12 @@
       <c r="AJ44" s="7"/>
     </row>
     <row r="45" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A45" s="34">
+      <c r="A45" s="35">
         <v>43980</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -2989,12 +2992,12 @@
       <c r="AJ45" s="7"/>
     </row>
     <row r="46" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A46" s="34">
+      <c r="A46" s="35">
         <v>43981</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -3029,12 +3032,12 @@
       <c r="AJ46" s="7"/>
     </row>
     <row r="47" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A47" s="34">
+      <c r="A47" s="35">
         <v>43982</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -3069,12 +3072,12 @@
       <c r="AJ47" s="7"/>
     </row>
     <row r="48" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A48" s="46">
+      <c r="A48" s="37">
         <v>43983</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -3109,12 +3112,12 @@
       <c r="AJ48" s="7"/>
     </row>
     <row r="49" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A49" s="34">
+      <c r="A49" s="35">
         <v>43984</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -3149,12 +3152,12 @@
       <c r="AJ49" s="7"/>
     </row>
     <row r="50" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A50" s="34">
+      <c r="A50" s="35">
         <v>43985</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -3189,12 +3192,12 @@
       <c r="AJ50" s="7"/>
     </row>
     <row r="51" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A51" s="34">
+      <c r="A51" s="35">
         <v>43986</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -3229,12 +3232,12 @@
       <c r="AJ51" s="7"/>
     </row>
     <row r="52" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A52" s="34">
+      <c r="A52" s="35">
         <v>43987</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -3269,12 +3272,12 @@
       <c r="AJ52" s="7"/>
     </row>
     <row r="53" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A53" s="34">
+      <c r="A53" s="35">
         <v>43988</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -3309,12 +3312,12 @@
       <c r="AJ53" s="7"/>
     </row>
     <row r="54" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A54" s="34">
+      <c r="A54" s="35">
         <v>43989</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -3349,12 +3352,12 @@
       <c r="AJ54" s="7"/>
     </row>
     <row r="55" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A55" s="34">
+      <c r="A55" s="35">
         <v>43990</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -3389,12 +3392,12 @@
       <c r="AJ55" s="7"/>
     </row>
     <row r="56" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A56" s="34">
+      <c r="A56" s="35">
         <v>43991</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -3429,12 +3432,12 @@
       <c r="AJ56" s="7"/>
     </row>
     <row r="57" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A57" s="34">
+      <c r="A57" s="35">
         <v>43992</v>
       </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -3469,12 +3472,12 @@
       <c r="AJ57" s="7"/>
     </row>
     <row r="58" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A58" s="34">
+      <c r="A58" s="35">
         <v>43993</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -3509,12 +3512,12 @@
       <c r="AJ58" s="7"/>
     </row>
     <row r="59" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A59" s="34">
+      <c r="A59" s="35">
         <v>43994</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
@@ -3549,12 +3552,12 @@
       <c r="AJ59" s="7"/>
     </row>
     <row r="60" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A60" s="34">
+      <c r="A60" s="35">
         <v>43995</v>
       </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
@@ -3589,12 +3592,12 @@
       <c r="AJ60" s="7"/>
     </row>
     <row r="61" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A61" s="34">
+      <c r="A61" s="35">
         <v>43996</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -3629,12 +3632,12 @@
       <c r="AJ61" s="7"/>
     </row>
     <row r="62" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A62" s="34">
+      <c r="A62" s="35">
         <v>43997</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
@@ -3669,12 +3672,12 @@
       <c r="AJ62" s="7"/>
     </row>
     <row r="63" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A63" s="34">
+      <c r="A63" s="35">
         <v>43998</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -3709,12 +3712,12 @@
       <c r="AJ63" s="7"/>
     </row>
     <row r="64" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A64" s="34">
+      <c r="A64" s="35">
         <v>43999</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -3749,12 +3752,12 @@
       <c r="AJ64" s="7"/>
     </row>
     <row r="65" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A65" s="34">
+      <c r="A65" s="35">
         <v>44000</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -3789,12 +3792,12 @@
       <c r="AJ65" s="7"/>
     </row>
     <row r="66" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A66" s="34">
+      <c r="A66" s="35">
         <v>44001</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -3829,12 +3832,12 @@
       <c r="AJ66" s="7"/>
     </row>
     <row r="67" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A67" s="34">
+      <c r="A67" s="35">
         <v>44002</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -3869,12 +3872,12 @@
       <c r="AJ67" s="7"/>
     </row>
     <row r="68" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A68" s="34">
+      <c r="A68" s="35">
         <v>44003</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -3909,12 +3912,12 @@
       <c r="AJ68" s="7"/>
     </row>
     <row r="69" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A69" s="34">
+      <c r="A69" s="35">
         <v>44004</v>
       </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -3949,12 +3952,12 @@
       <c r="AJ69" s="7"/>
     </row>
     <row r="70" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A70" s="34">
+      <c r="A70" s="35">
         <v>44005</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
@@ -3990,30 +3993,42 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="AQ5:BD5"/>
+    <mergeCell ref="AQ16:AS16"/>
+    <mergeCell ref="AT16:AV16"/>
+    <mergeCell ref="AW16:AY16"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AL7:AN14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
@@ -4030,42 +4045,30 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="AQ5:BD5"/>
-    <mergeCell ref="AQ16:AS16"/>
-    <mergeCell ref="AT16:AV16"/>
-    <mergeCell ref="AW16:AY16"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AL7:AN14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A69:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/emotion_record_statistics/emotion_record.xlsx
+++ b/emotion_record_statistics/emotion_record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tools-programs\emotion_record_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D532ADFD-4275-44B1-BAB2-48AB22D71A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BBB2A8-5F2C-4F45-B616-370AE019B14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C852AB77-5F89-44F3-A590-1A1628580EA8}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Numb</t>
   </si>
@@ -122,12 +116,6 @@
     <t>Chilling out</t>
   </si>
   <si>
-    <t>漏填的格子用最近的颜色填上
-长时间漏填留空白
-TODO:
-制作读取本表格的工具</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">I - </t>
     </r>
@@ -159,6 +147,70 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>漏填的格子用最近的颜色填上
+长时间漏填留空白</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Academic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entertainments</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rapid emotion fluctuation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integer - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Number of repetition</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -472,7 +524,7 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -514,6 +566,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="14" borderId="1" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,12 +608,7 @@
     <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="14"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="20% - 着色 6" xfId="12" builtinId="50"/>
@@ -888,7 +941,7 @@
   <dimension ref="A1:BD70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+      <selection activeCell="AJ23" sqref="AI23:AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="21.6" customHeight="1"/>
@@ -898,12 +951,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A1" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="6">
         <v>0.29166666666666669</v>
       </c>
@@ -1044,12 +1097,12 @@
       <c r="AJ2" s="32"/>
     </row>
     <row r="3" spans="1:56" ht="21.6" customHeight="1">
-      <c r="A3" s="50">
+      <c r="A3" s="37">
         <v>43938</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="27"/>
       <c r="F3" s="32"/>
       <c r="G3" s="34"/>
@@ -1082,6 +1135,7 @@
       <c r="AH3" s="30"/>
       <c r="AI3" s="32"/>
       <c r="AJ3" s="30"/>
+      <c r="AK3" s="51"/>
     </row>
     <row r="4" spans="1:56" ht="21.6" customHeight="1">
       <c r="A4" s="35">
@@ -1122,6 +1176,7 @@
       <c r="AH4" s="30"/>
       <c r="AI4" s="32"/>
       <c r="AJ4" s="30"/>
+      <c r="AK4" s="51"/>
     </row>
     <row r="5" spans="1:56" ht="21.6" customHeight="1">
       <c r="A5" s="35">
@@ -1162,22 +1217,23 @@
       <c r="AH5" s="30"/>
       <c r="AI5" s="32"/>
       <c r="AJ5" s="30"/>
-      <c r="AQ5" s="39" t="s">
+      <c r="AK5" s="51"/>
+      <c r="AQ5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="40"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="40"/>
-      <c r="AV5" s="40"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="40"/>
-      <c r="BB5" s="40"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="41"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="43"/>
     </row>
     <row r="6" spans="1:56" ht="21.6" customHeight="1">
       <c r="A6" s="35">
@@ -1218,11 +1274,12 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="32"/>
       <c r="AJ6" s="30"/>
-      <c r="AL6" s="45" t="s">
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
       <c r="AQ6" s="19"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
@@ -1277,11 +1334,12 @@
       <c r="AH7" s="30"/>
       <c r="AI7" s="32"/>
       <c r="AJ7" s="30"/>
-      <c r="AL7" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
       <c r="AQ7" s="20"/>
       <c r="AR7" s="16" t="s">
         <v>0</v>
@@ -1339,9 +1397,10 @@
       <c r="AH8" s="30"/>
       <c r="AI8" s="32"/>
       <c r="AJ8" s="30"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="46"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
       <c r="AQ8" s="19"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
@@ -1398,9 +1457,9 @@
       <c r="AH9" s="30"/>
       <c r="AI9" s="32"/>
       <c r="AJ9" s="30"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="11"/>
       <c r="AR9" s="16" t="s">
@@ -1416,7 +1475,7 @@
       <c r="AX9" s="2"/>
       <c r="AY9" s="3"/>
       <c r="AZ9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
@@ -1462,9 +1521,9 @@
       <c r="AH10" s="30"/>
       <c r="AI10" s="32"/>
       <c r="AJ10" s="30"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="46"/>
-      <c r="AN10" s="46"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="12"/>
       <c r="AR10" s="16" t="s">
@@ -1482,7 +1541,7 @@
       </c>
       <c r="AY10" s="3"/>
       <c r="AZ10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA10" s="2"/>
       <c r="BB10" s="17"/>
@@ -1528,9 +1587,9 @@
       <c r="AH11" s="30"/>
       <c r="AI11" s="32"/>
       <c r="AJ11" s="30"/>
-      <c r="AL11" s="46"/>
-      <c r="AM11" s="46"/>
-      <c r="AN11" s="46"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
       <c r="AP11" s="3"/>
       <c r="AQ11" s="13"/>
       <c r="AR11" s="16" t="s">
@@ -1547,7 +1606,9 @@
         <v>3</v>
       </c>
       <c r="AY11" s="3"/>
-      <c r="AZ11" s="19"/>
+      <c r="AZ11" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
@@ -1592,9 +1653,9 @@
       <c r="AH12" s="30"/>
       <c r="AI12" s="32"/>
       <c r="AJ12" s="30"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="14"/>
       <c r="AR12" s="16" t="s">
@@ -1609,7 +1670,9 @@
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
       <c r="AY12" s="3"/>
-      <c r="AZ12" s="19"/>
+      <c r="AZ12" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
@@ -1654,9 +1717,9 @@
       <c r="AH13" s="30"/>
       <c r="AI13" s="32"/>
       <c r="AJ13" s="30"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="46"/>
-      <c r="AN13" s="46"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
@@ -1667,7 +1730,9 @@
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
       <c r="AY13" s="3"/>
-      <c r="AZ13" s="19"/>
+      <c r="AZ13" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
       <c r="BC13" s="2"/>
@@ -1712,12 +1777,14 @@
       <c r="AH14" s="30"/>
       <c r="AI14" s="32"/>
       <c r="AJ14" s="30"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="46"/>
-      <c r="AN14" s="46"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
       <c r="AP14" s="3"/>
       <c r="AY14" s="3"/>
-      <c r="AZ14" s="19"/>
+      <c r="AZ14" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
       <c r="BC14" s="2"/>
@@ -1810,34 +1877,34 @@
       <c r="AI16" s="32"/>
       <c r="AJ16" s="30"/>
       <c r="AP16" s="3"/>
-      <c r="AQ16" s="42" t="s">
+      <c r="AQ16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="43"/>
-      <c r="AS16" s="43"/>
-      <c r="AT16" s="43" t="s">
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AU16" s="43"/>
-      <c r="AV16" s="43"/>
-      <c r="AW16" s="43" t="s">
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AX16" s="43"/>
-      <c r="AY16" s="44"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="46"/>
       <c r="AZ16" s="21"/>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
       <c r="BC16" s="4"/>
       <c r="BD16" s="5"/>
     </row>
-    <row r="17" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A17" s="37">
+    <row r="17" spans="1:37" ht="21.6" customHeight="1">
+      <c r="A17" s="39">
         <v>43952</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="27"/>
       <c r="F17" s="32"/>
       <c r="G17" s="34"/>
@@ -1871,7 +1938,7 @@
       <c r="AI17" s="32"/>
       <c r="AJ17" s="30"/>
     </row>
-    <row r="18" spans="1:36" ht="21.6" customHeight="1">
+    <row r="18" spans="1:37" ht="21.6" customHeight="1">
       <c r="A18" s="35">
         <v>43953</v>
       </c>
@@ -1911,7 +1978,7 @@
       <c r="AI18" s="32"/>
       <c r="AJ18" s="30"/>
     </row>
-    <row r="19" spans="1:36" ht="21.6" customHeight="1">
+    <row r="19" spans="1:37" ht="21.6" customHeight="1">
       <c r="A19" s="35">
         <v>43954</v>
       </c>
@@ -1951,7 +2018,7 @@
       <c r="AI19" s="32"/>
       <c r="AJ19" s="30"/>
     </row>
-    <row r="20" spans="1:36" ht="21.6" customHeight="1">
+    <row r="20" spans="1:37" ht="21.6" customHeight="1">
       <c r="A20" s="35">
         <v>43955</v>
       </c>
@@ -1991,7 +2058,7 @@
       <c r="AI20" s="32"/>
       <c r="AJ20" s="30"/>
     </row>
-    <row r="21" spans="1:36" ht="21.6" customHeight="1">
+    <row r="21" spans="1:37" ht="21.6" customHeight="1">
       <c r="A21" s="35">
         <v>43956</v>
       </c>
@@ -2031,7 +2098,7 @@
       <c r="AI21" s="32"/>
       <c r="AJ21" s="30"/>
     </row>
-    <row r="22" spans="1:36" ht="21.6" customHeight="1">
+    <row r="22" spans="1:37" ht="21.6" customHeight="1">
       <c r="A22" s="35">
         <v>43957</v>
       </c>
@@ -2071,7 +2138,7 @@
       <c r="AI22" s="32"/>
       <c r="AJ22" s="30"/>
     </row>
-    <row r="23" spans="1:36" ht="21.6" customHeight="1">
+    <row r="23" spans="1:37" ht="21.6" customHeight="1">
       <c r="A23" s="35">
         <v>43958</v>
       </c>
@@ -2111,7 +2178,7 @@
       <c r="AI23" s="32"/>
       <c r="AJ23" s="30"/>
     </row>
-    <row r="24" spans="1:36" ht="21.6" customHeight="1">
+    <row r="24" spans="1:37" ht="21.6" customHeight="1">
       <c r="A24" s="35">
         <v>43959</v>
       </c>
@@ -2151,7 +2218,7 @@
       <c r="AI24" s="32"/>
       <c r="AJ24" s="30"/>
     </row>
-    <row r="25" spans="1:36" ht="21.6" customHeight="1">
+    <row r="25" spans="1:37" ht="21.6" customHeight="1">
       <c r="A25" s="35">
         <v>43960</v>
       </c>
@@ -2191,7 +2258,7 @@
       <c r="AI25" s="32"/>
       <c r="AJ25" s="30"/>
     </row>
-    <row r="26" spans="1:36" ht="21.6" customHeight="1">
+    <row r="26" spans="1:37" ht="21.6" customHeight="1">
       <c r="A26" s="35">
         <v>43961</v>
       </c>
@@ -2231,13 +2298,13 @@
       <c r="AI26" s="32"/>
       <c r="AJ26" s="30"/>
     </row>
-    <row r="27" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A27" s="47">
+    <row r="27" spans="1:37" ht="21.6" customHeight="1">
+      <c r="A27" s="49">
         <v>43962</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="27"/>
       <c r="F27" s="32"/>
       <c r="G27" s="34"/>
@@ -2271,7 +2338,7 @@
       <c r="AI27" s="32"/>
       <c r="AJ27" s="30"/>
     </row>
-    <row r="28" spans="1:36" ht="21.6" customHeight="1">
+    <row r="28" spans="1:37" ht="21.6" customHeight="1">
       <c r="A28" s="35">
         <v>43963</v>
       </c>
@@ -2311,7 +2378,7 @@
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
     </row>
-    <row r="29" spans="1:36" ht="21.6" customHeight="1">
+    <row r="29" spans="1:37" ht="21.6" customHeight="1">
       <c r="A29" s="35">
         <v>43964</v>
       </c>
@@ -2350,8 +2417,9 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
-    </row>
-    <row r="30" spans="1:36" ht="21.6" customHeight="1">
+      <c r="AK29" s="51"/>
+    </row>
+    <row r="30" spans="1:37" ht="21.6" customHeight="1">
       <c r="A30" s="35">
         <v>43965</v>
       </c>
@@ -2390,8 +2458,9 @@
       <c r="AH30" s="7"/>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
-    </row>
-    <row r="31" spans="1:36" ht="21.6" customHeight="1">
+      <c r="AK30" s="51"/>
+    </row>
+    <row r="31" spans="1:37" ht="21.6" customHeight="1">
       <c r="A31" s="35">
         <v>43966</v>
       </c>
@@ -2430,8 +2499,9 @@
       <c r="AH31" s="7"/>
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
-    </row>
-    <row r="32" spans="1:36" ht="21.6" customHeight="1">
+      <c r="AK31" s="51"/>
+    </row>
+    <row r="32" spans="1:37" ht="21.6" customHeight="1">
       <c r="A32" s="35">
         <v>43967</v>
       </c>
@@ -2470,8 +2540,9 @@
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7"/>
-    </row>
-    <row r="33" spans="1:36" ht="21.6" customHeight="1">
+      <c r="AK32" s="51"/>
+    </row>
+    <row r="33" spans="1:37" ht="21.6" customHeight="1">
       <c r="A33" s="35">
         <v>43968</v>
       </c>
@@ -2510,8 +2581,9 @@
       <c r="AH33" s="7"/>
       <c r="AI33" s="7"/>
       <c r="AJ33" s="7"/>
-    </row>
-    <row r="34" spans="1:36" ht="21.6" customHeight="1">
+      <c r="AK33" s="51"/>
+    </row>
+    <row r="34" spans="1:37" ht="21.6" customHeight="1">
       <c r="A34" s="35">
         <v>43969</v>
       </c>
@@ -2550,8 +2622,9 @@
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="7"/>
-    </row>
-    <row r="35" spans="1:36" ht="21.6" customHeight="1">
+      <c r="AK34" s="51"/>
+    </row>
+    <row r="35" spans="1:37" ht="21.6" customHeight="1">
       <c r="A35" s="35">
         <v>43970</v>
       </c>
@@ -2591,7 +2664,7 @@
       <c r="AI35" s="7"/>
       <c r="AJ35" s="7"/>
     </row>
-    <row r="36" spans="1:36" ht="21.6" customHeight="1">
+    <row r="36" spans="1:37" ht="21.6" customHeight="1">
       <c r="A36" s="35">
         <v>43971</v>
       </c>
@@ -2631,7 +2704,7 @@
       <c r="AI36" s="7"/>
       <c r="AJ36" s="7"/>
     </row>
-    <row r="37" spans="1:36" ht="21.6" customHeight="1">
+    <row r="37" spans="1:37" ht="21.6" customHeight="1">
       <c r="A37" s="35">
         <v>43972</v>
       </c>
@@ -2671,7 +2744,7 @@
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7"/>
     </row>
-    <row r="38" spans="1:36" ht="21.6" customHeight="1">
+    <row r="38" spans="1:37" ht="21.6" customHeight="1">
       <c r="A38" s="35">
         <v>43973</v>
       </c>
@@ -2711,7 +2784,7 @@
       <c r="AI38" s="7"/>
       <c r="AJ38" s="7"/>
     </row>
-    <row r="39" spans="1:36" ht="21.6" customHeight="1">
+    <row r="39" spans="1:37" ht="21.6" customHeight="1">
       <c r="A39" s="35">
         <v>43974</v>
       </c>
@@ -2751,7 +2824,7 @@
       <c r="AI39" s="7"/>
       <c r="AJ39" s="7"/>
     </row>
-    <row r="40" spans="1:36" ht="21.6" customHeight="1">
+    <row r="40" spans="1:37" ht="21.6" customHeight="1">
       <c r="A40" s="35">
         <v>43975</v>
       </c>
@@ -2791,7 +2864,7 @@
       <c r="AI40" s="7"/>
       <c r="AJ40" s="7"/>
     </row>
-    <row r="41" spans="1:36" ht="21.6" customHeight="1">
+    <row r="41" spans="1:37" ht="21.6" customHeight="1">
       <c r="A41" s="35">
         <v>43976</v>
       </c>
@@ -2831,7 +2904,7 @@
       <c r="AI41" s="7"/>
       <c r="AJ41" s="7"/>
     </row>
-    <row r="42" spans="1:36" ht="21.6" customHeight="1">
+    <row r="42" spans="1:37" ht="21.6" customHeight="1">
       <c r="A42" s="35">
         <v>43977</v>
       </c>
@@ -2871,7 +2944,7 @@
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
     </row>
-    <row r="43" spans="1:36" ht="21.6" customHeight="1">
+    <row r="43" spans="1:37" ht="21.6" customHeight="1">
       <c r="A43" s="35">
         <v>43978</v>
       </c>
@@ -2911,7 +2984,7 @@
       <c r="AI43" s="7"/>
       <c r="AJ43" s="7"/>
     </row>
-    <row r="44" spans="1:36" ht="21.6" customHeight="1">
+    <row r="44" spans="1:37" ht="21.6" customHeight="1">
       <c r="A44" s="35">
         <v>43979</v>
       </c>
@@ -2951,7 +3024,7 @@
       <c r="AI44" s="7"/>
       <c r="AJ44" s="7"/>
     </row>
-    <row r="45" spans="1:36" ht="21.6" customHeight="1">
+    <row r="45" spans="1:37" ht="21.6" customHeight="1">
       <c r="A45" s="35">
         <v>43980</v>
       </c>
@@ -2991,7 +3064,7 @@
       <c r="AI45" s="7"/>
       <c r="AJ45" s="7"/>
     </row>
-    <row r="46" spans="1:36" ht="21.6" customHeight="1">
+    <row r="46" spans="1:37" ht="21.6" customHeight="1">
       <c r="A46" s="35">
         <v>43981</v>
       </c>
@@ -3031,7 +3104,7 @@
       <c r="AI46" s="7"/>
       <c r="AJ46" s="7"/>
     </row>
-    <row r="47" spans="1:36" ht="21.6" customHeight="1">
+    <row r="47" spans="1:37" ht="21.6" customHeight="1">
       <c r="A47" s="35">
         <v>43982</v>
       </c>
@@ -3071,13 +3144,13 @@
       <c r="AI47" s="7"/>
       <c r="AJ47" s="7"/>
     </row>
-    <row r="48" spans="1:36" ht="21.6" customHeight="1">
-      <c r="A48" s="37">
+    <row r="48" spans="1:37" ht="21.6" customHeight="1">
+      <c r="A48" s="39">
         <v>43983</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -3993,26 +4066,46 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="AQ5:BD5"/>
     <mergeCell ref="AQ16:AS16"/>
@@ -4029,46 +4122,26 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
